--- a/docs/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022.xlsx
+++ b/docs/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turgot75-my.sharepoint.com/personal/agiboz_turgot-paris_info/Documents/SIO 2/A.P/Portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80DEF403-1B5A-4A7F-AC2C-F179FCB15BA1}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64916A42-5354-4F16-ADB8-EC7B2B4672C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -120,15 +120,6 @@
   </si>
   <si>
     <t>Centre de formation : Lycée Turgot, 75003 Paris</t>
-  </si>
-  <si>
-    <t>AP 1 - CV et lettre de motivation</t>
-  </si>
-  <si>
-    <t>AP 1 - Recherche et compte rendu solutions CMS</t>
-  </si>
-  <si>
-    <t>AP 1 - Recherche et compte rendu méthodes de projet</t>
   </si>
   <si>
     <t>AP 1 - Portfolio</t>
@@ -624,15 +615,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,15 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,10 +999,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1024,56 +1015,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1085,10 +1076,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1111,8 +1102,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
@@ -1168,16 +1159,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1219,7 +1210,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1227,7 +1218,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1270,16 +1261,20 @@
         <v>27</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="G9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="16"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1321,16 +1316,24 @@
         <v>28</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1374,14 +1377,22 @@
       <c r="B11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="C11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1419,22 +1430,12 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12"/>
@@ -1474,25 +1475,13 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1531,25 +1520,13 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1677,15 +1654,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1722,17 +1701,29 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1771,27 +1762,27 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H19" s="16"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1830,25 +1821,19 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20"/>
@@ -1888,21 +1873,13 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -2120,15 +2097,17 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2165,17 +2144,21 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2214,10 +2197,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2225,7 +2208,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2265,19 +2248,21 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="H29" s="16"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2316,17 +2301,19 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E30" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -2369,22 +2356,22 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2423,24 +2410,24 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="16"/>
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="18"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2479,21 +2466,17 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>42</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33"/>
@@ -2532,21 +2515,25 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="20"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2583,25 +2570,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="20"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2638,51 +2615,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2728,20 +2661,19 @@
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/docs/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022.xlsx
+++ b/docs/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turgot75-my.sharepoint.com/personal/agiboz_turgot-paris_info/Documents/SIO 2/A.P/Portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64916A42-5354-4F16-ADB8-EC7B2B4672C4}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58DB80AA-2011-482B-9279-D66D882A79BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -198,6 +198,9 @@
     <t>29/11/2021
 au
 21/01/2022</t>
+  </si>
+  <si>
+    <t>Lien vers le Portfolio: https://nosiguapo.github.io</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -533,12 +536,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -615,9 +627,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -627,35 +669,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,72 +1014,72 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.75" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.375" customWidth="1"/>
+    <col min="44" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1075,100 +1090,66 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="14" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1205,21 +1186,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
-        <v>39</v>
-      </c>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1256,25 +1233,21 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1311,12 +1284,12 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>39</v>
@@ -1324,12 +1297,8 @@
       <c r="D10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
         <v>39</v>
       </c>
@@ -1370,12 +1339,12 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>39</v>
@@ -1429,14 +1398,28 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1474,7 +1457,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="23"/>
       <c r="C13" s="15"/>
@@ -1519,7 +1502,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="23"/>
       <c r="C14" s="15"/>
@@ -1564,7 +1547,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="23"/>
       <c r="C15" s="15"/>
@@ -1609,7 +1592,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="23"/>
       <c r="C16" s="15"/>
@@ -1654,17 +1637,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1701,29 +1682,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>39</v>
-      </c>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1760,16 +1729,14 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1749,9 @@
       <c r="G19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1819,19 +1788,25 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="15" t="s">
         <v>39</v>
       </c>
@@ -1872,14 +1847,22 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="23"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -1917,7 +1900,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="23"/>
       <c r="C22" s="15"/>
@@ -1962,7 +1945,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -2007,7 +1990,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -2052,7 +2035,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -2097,17 +2080,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2144,21 +2125,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16" t="s">
-        <v>39</v>
-      </c>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2195,9 +2172,9 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>47</v>
@@ -2246,23 +2223,21 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2299,9 +2274,9 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>47</v>
@@ -2309,9 +2284,7 @@
       <c r="C30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
         <v>39</v>
       </c>
@@ -2354,9 +2327,9 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>47</v>
@@ -2364,14 +2337,14 @@
       <c r="C31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2409,25 +2382,25 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="18"/>
+      <c r="C32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="16"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2464,16 +2437,20 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
         <v>39</v>
@@ -2515,25 +2492,21 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="25" t="s">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="20"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2570,15 +2543,25 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="20"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2615,7 +2598,51 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="14.3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+    </row>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2661,19 +2688,21 @@
     <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="12">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/docs/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022.xlsx
+++ b/docs/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turgot75-my.sharepoint.com/personal/agiboz_turgot-paris_info/Documents/SIO 2/A.P/Portfolio/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58DB80AA-2011-482B-9279-D66D882A79BA}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3475883A-9EF3-4EA7-A8A2-5721B498EDC0}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$26</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Centre de formation : Lycée Turgot, 75003 Paris</t>
   </si>
   <si>
-    <t>AP 1 - Portfolio</t>
-  </si>
-  <si>
     <t>AP 2 - Développement application MVC PHP : Linguist</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Lien vers le Portfolio: https://nosiguapo.github.io</t>
+  </si>
+  <si>
+    <t>AP 1 - Portfolio, CV Web, Comptre rendu Gestion CMS</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,24 +618,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,18 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,10 +1011,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1030,56 +1027,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1091,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="A5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5"/>
       <c r="AQ5" s="1"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1130,8 +1127,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
@@ -1187,16 +1184,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1235,18 +1232,20 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1286,21 +1285,21 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10"/>
@@ -1341,27 +1340,29 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1400,27 +1401,29 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1457,15 +1460,17 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1503,13 +1508,25 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1548,14 +1565,30 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1593,14 +1626,24 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1637,15 +1680,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1682,17 +1727,21 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1731,26 +1780,20 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -1790,26 +1833,20 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -1849,20 +1886,22 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -1901,14 +1940,26 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1946,14 +1997,26 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1991,14 +2054,20 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="18"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2035,15 +2104,27 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="20"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2080,15 +2161,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="14.3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2125,536 +2206,28 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-      <c r="AQ27"/>
-    </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-    </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-    </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-    </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="14.3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2679,30 +2252,20 @@
     <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
